--- a/data/coding_scheme.xlsx
+++ b/data/coding_scheme.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$1:$C$333</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$K$1:$K$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$1:$C$342</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="335">
   <si>
     <t xml:space="preserve">old_var</t>
   </si>
@@ -58,6 +59,9 @@
     <t xml:space="preserve">modeling</t>
   </si>
   <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
     <t xml:space="preserve">sex</t>
   </si>
   <si>
@@ -280,6 +284,24 @@
     <t xml:space="preserve">CTSS LL V1</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent_opac_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_opac_fup1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opacity V1, % lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent_highopac_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_hiopac_fup1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High opacity V1, % lung</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOE_2</t>
   </si>
   <si>
@@ -415,6 +437,24 @@
     <t xml:space="preserve">CTSS LL V2</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent_opac_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_opac_fup2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opacity V2, % lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent_highopac_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_hiopac_fup2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High opacity V2, % lung</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOE_3</t>
   </si>
   <si>
@@ -550,6 +590,24 @@
     <t xml:space="preserve">CTSS LL V3</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent_opac_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_opac_fup3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opacity V3, % lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent_highopac_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_hiopac_fup3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High opacity V3, % lung</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOE_4</t>
   </si>
   <si>
@@ -703,6 +761,24 @@
     <t xml:space="preserve">CTSS LL V4</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent_opac_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_opac_fup4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opacity V4, % lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent_highopac_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_hiopac_fup4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High opacity V4, % lung</t>
+  </si>
+  <si>
     <t xml:space="preserve">improve</t>
   </si>
   <si>
@@ -796,6 +872,18 @@
     <t xml:space="preserve">CTSS grading V4</t>
   </si>
   <si>
+    <t xml:space="preserve">opacity_fup4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any opacity V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiopacity_fup4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any high opacity V4</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggo</t>
   </si>
   <si>
@@ -895,9 +983,6 @@
     <t xml:space="preserve">Parenchymal destruction </t>
   </si>
   <si>
-    <t xml:space="preserve">pili</t>
-  </si>
-  <si>
     <t xml:space="preserve">ctss_class</t>
   </si>
   <si>
@@ -920,6 +1005,30 @@
   </si>
   <si>
     <t xml:space="preserve">Severe abnormalities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_opac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_hiopac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High opacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any opacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiopacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any high opacity</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ358"/>
+  <dimension ref="A1:AMJ367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E64" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B85" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H95" activeCellId="0" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -1082,2177 +1191,2449 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2"/>
       <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2"/>
       <c r="H27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="B28" s="0" t="s">
+        <v>90</v>
+      </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2"/>
       <c r="H28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2"/>
       <c r="H29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C30" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="H30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>97</v>
+      <c r="A31" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
       <c r="H31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="H33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>109</v>
+      <c r="A35" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2"/>
       <c r="H38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2"/>
       <c r="H39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>124</v>
+      <c r="A40" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2"/>
       <c r="H40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2"/>
       <c r="H41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>130</v>
+      <c r="A42" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2"/>
       <c r="H42" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="B43" s="0" t="s">
+        <v>135</v>
+      </c>
       <c r="C43" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2"/>
       <c r="H43" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2"/>
       <c r="H44" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="H45" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
       <c r="H46" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C47" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="H47" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>148</v>
+      <c r="A48" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="H48" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>151</v>
+      <c r="A49" s="0" t="s">
+        <v>152</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>154</v>
+      <c r="A50" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
       <c r="H50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>157</v>
+      <c r="A51" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H51" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H52" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H53" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>166</v>
+      <c r="A54" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H54" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>169</v>
+      <c r="A55" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2"/>
       <c r="H55" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>172</v>
+      <c r="A56" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2"/>
       <c r="H56" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>175</v>
+      <c r="A57" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2"/>
       <c r="H57" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="B58" s="0" t="s">
+        <v>180</v>
+      </c>
       <c r="C58" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2"/>
       <c r="H58" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>181</v>
+      <c r="A59" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2"/>
       <c r="H59" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>184</v>
+      <c r="A60" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="H60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
       <c r="H61" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="H62" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-    </row>
-    <row r="63" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>193</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>194</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
+        <v>19</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="H63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I63" s="0"/>
+        <v>196</v>
+      </c>
       <c r="J63" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L63" s="0"/>
-      <c r="M63" s="0"/>
-      <c r="N63" s="0"/>
-      <c r="O63" s="0"/>
-      <c r="P63" s="0"/>
-      <c r="Q63" s="0"/>
-      <c r="R63" s="0"/>
-      <c r="S63" s="0"/>
-      <c r="T63" s="0"/>
-      <c r="U63" s="0"/>
-      <c r="V63" s="0"/>
-      <c r="W63" s="0"/>
-      <c r="X63" s="0"/>
-      <c r="Y63" s="0"/>
-      <c r="AMH63" s="0"/>
-      <c r="AMI63" s="0"/>
-      <c r="AMJ63" s="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="0" t="s">
         <v>197</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C64" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="H64" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="H65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>202</v>
+      <c r="A66" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
       <c r="H67" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H68" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>211</v>
+        <v>49</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
       <c r="H69" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I69" s="0"/>
       <c r="J69" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="0"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0"/>
+      <c r="X69" s="0"/>
+      <c r="Y69" s="0"/>
+      <c r="AMH69" s="0"/>
+      <c r="AMI69" s="0"/>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>214</v>
+      <c r="A70" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H70" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>217</v>
+      <c r="A71" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H71" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>220</v>
+      <c r="A72" s="0" t="s">
+        <v>221</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>13</v>
+      </c>
       <c r="H73" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>228</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D74" s="2"/>
       <c r="H74" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>231</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D75" s="2"/>
       <c r="H75" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="H76" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>236</v>
+      </c>
       <c r="B77" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="H77" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="B78" s="0" t="s">
-        <v>236</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2"/>
       <c r="H78" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>240</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2"/>
       <c r="H79" s="1" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>243</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D80" s="2"/>
       <c r="H80" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>248</v>
+      </c>
       <c r="B81" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="H81" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>249</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="H82" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>249</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="H83" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>208</v>
-      </c>
       <c r="B85" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>249</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="H85" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="B86" s="0" t="s">
+        <v>261</v>
+      </c>
       <c r="H86" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>259</v>
+        <v>16</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="B87" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>265</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>259</v>
+        <v>16</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="B88" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>268</v>
+      </c>
       <c r="H88" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>259</v>
+        <v>16</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="H89" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>259</v>
+        <v>16</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="B90" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="H90" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>119</v>
+      </c>
       <c r="B91" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="H91" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>170</v>
+      </c>
       <c r="B92" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="H92" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>227</v>
+      </c>
       <c r="B93" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="H93" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>282</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="H94" s="1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>284</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="H95" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
-        <v>278</v>
+      <c r="B96" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="H96" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+        <v>289</v>
+      </c>
       <c r="H97" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="H98" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="H99" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="H100" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="H101" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="H102" s="0" t="s">
-        <v>228</v>
+      <c r="H102" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>301</v>
+      </c>
       <c r="D103" s="2"/>
-      <c r="H103" s="0" t="s">
-        <v>292</v>
+      <c r="H103" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="2" t="s">
-        <v>293</v>
+      <c r="B104" s="0" t="s">
+        <v>303</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="H104" s="0" t="s">
-        <v>294</v>
+      <c r="H104" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>19</v>
+        <v>288</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="H105" s="0" t="s">
-        <v>296</v>
+      <c r="H105" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>19</v>
+        <v>288</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="H106" s="0" t="s">
-        <v>298</v>
+      <c r="H106" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>19</v>
+        <v>288</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>309</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
+      <c r="H107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>311</v>
+      </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
+      <c r="H108" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
+      <c r="H109" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
+      <c r="H110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>317</v>
+      </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
+      <c r="H111" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>319</v>
+      </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
+      <c r="H112" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
+      <c r="H113" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>323</v>
+      </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
+      <c r="H114" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>325</v>
+      </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
+      <c r="H115" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>327</v>
+      </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
+      <c r="H116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
+      <c r="H117" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="2"/>
+      <c r="B118" s="0" t="s">
+        <v>331</v>
+      </c>
       <c r="D118" s="2"/>
+      <c r="H118" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>333</v>
+      </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
+      <c r="H119" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="2"/>
@@ -3283,7 +3664,6 @@
       <c r="D126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
@@ -3299,6 +3679,10 @@
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3316,6 +3700,7 @@
       <c r="D135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
@@ -3331,10 +3716,6 @@
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -3355,77 +3736,59 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="2"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="2"/>
@@ -3511,12 +3874,43 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+    </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -3534,43 +3928,12 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-    </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -3669,6 +4032,50 @@
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="2"/>
@@ -3679,50 +4086,6 @@
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="2"/>
@@ -3868,47 +4231,101 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+    </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="2"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D358" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="2"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D367" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C333"/>
+  <autoFilter ref="K1:K115"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/coding_scheme.xlsx
+++ b/data/coding_scheme.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$K$1:$K$115</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$1:$C$342</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$1:$C$342</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$K$1:$K$115</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">0;5;10</t>
   </si>
   <si>
-    <t xml:space="preserve">0;1-5;6-10;11-25</t>
+    <t xml:space="preserve">absent;low;intermediate;high</t>
   </si>
   <si>
     <t xml:space="preserve">CTSS grading V1</t>
@@ -1145,11 +1145,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B85" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H95" activeCellId="0" sqref="H95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B82" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E90" activeCellId="0" sqref="E90:E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.13"/>
@@ -4325,7 +4325,7 @@
       <c r="D367" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K115"/>
+  <autoFilter ref="C1:C342"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
